--- a/MT-Baseboard V1.0.0/MT-CORE V1.2.0/MT-CORE V1.2.0贴片文件/MT-CORE V1.2.0bom.xlsx
+++ b/MT-Baseboard V1.0.0/MT-CORE V1.2.0/MT-CORE V1.2.0贴片文件/MT-CORE V1.2.0bom.xlsx
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
